--- a/output/excel/GR 9B.xlsx
+++ b/output/excel/GR 9B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\Projects\PyCharm\SchoolProjects\ClassRegister\output\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BFCF8-4B40-4E49-9EE8-96B54AF5603D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A770F9-0880-4435-96DD-D9D3358280E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7464" yWindow="288" windowWidth="15576" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
